--- a/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_15.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_15.xlsx
@@ -454,7 +454,7 @@
         <v>2656</v>
       </c>
       <c r="D2" t="n">
-        <v>26.00978398323059</v>
+        <v>26.27137351036072</v>
       </c>
     </row>
   </sheetData>
